--- a/storage/files/questionnaires/report.xlsx
+++ b/storage/files/questionnaires/report.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaapi\OneDrive\Desktop\WebApps\CozyFirm\tms-sogfbih\storage\files\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaapi\Documents\webApps\tms-sogfbih\storage\files\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB07B155-12B6-475A-BD14-9F40F3CF553B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9C5C66-F423-4517-A719-FF48810EA4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pitanja sa ponuđenm odgovorima" sheetId="2" r:id="rId1"/>
+    <sheet name="Tekstualni odgovori" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>SAVEZ OPĆINA I GRADOVA FBiH</t>
   </si>
@@ -48,6 +49,9 @@
   </si>
   <si>
     <t>Na izvještaju si prikazani samo odgovori koji su uneseni, odnosno na koje je korisnik/la odgovorio/la.</t>
+  </si>
+  <si>
+    <t>Na ovom sheet-u su prikazani tekstualni odgovori korisnika</t>
   </si>
 </sst>
 </file>
@@ -136,6 +140,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -148,15 +158,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -433,132 +437,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0837ED0-39EB-4172-98A4-A5A8128FDB33}">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J8"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+    <row r="2" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="10">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="6">
         <v>45717</v>
       </c>
-      <c r="J4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -570,7 +574,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -582,7 +586,182 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="6">
+        <v>45717</v>
+      </c>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
